--- a/1° Bimestre/Aula 0228/Exercicios/dicio_papelaria.xlsx
+++ b/1° Bimestre/Aula 0228/Exercicios/dicio_papelaria.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t xml:space="preserve">Tabela</t>
   </si>
@@ -76,7 +76,7 @@
     <t xml:space="preserve">Int</t>
   </si>
   <si>
-    <t xml:space="preserve">Nome de produto</t>
+    <t xml:space="preserve">Nome do produto</t>
   </si>
   <si>
     <t xml:space="preserve">Varchar</t>
@@ -95,6 +95,18 @@
   </si>
   <si>
     <t xml:space="preserve">PK/Identity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marca do produto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cor do produto</t>
   </si>
 </sst>
 </file>
@@ -298,7 +310,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -531,10 +543,55 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
     <row r="24" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="37">
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B3:L3"/>
@@ -564,6 +621,14 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="H11:L11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:L13"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
